--- a/src/adj_textrank/w2v_textrank_ngram_v8.xlsx
+++ b/src/adj_textrank/w2v_textrank_ngram_v8.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="w2v_tr_phrase" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,25 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,323 +434,332 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>key_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>key_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>key_3</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>score_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>score_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>score_3</t>
         </is>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="I1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="J1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="K1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="L1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>key_1</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>key_2</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>key_3</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>flex_recall</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>flex_prec</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>usulan</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>personnel</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>proposed</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.041</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.03</v>
       </c>
       <c r="F2" t="n">
         <v>0.03</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>persetujuan tertulis</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>prosedur</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>usulan</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>pengganti</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
         <is>
           <t>full_match</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>no_match</t>
         </is>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>no_match</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
         <v>0.143</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>0.333</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>document</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>facilities</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.151</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.133</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.083</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>template document</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>exhibit c</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>acuan</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>pengelolaan</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>dokumen</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
         <is>
           <t>partial_match</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>no_match</t>
         </is>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>no_match</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
         <v>0.143</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>0.333</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>ruang</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>usulan</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>ruangan</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.041</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.04</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.035</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>ruang kantor</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>change inquiry</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>lingkup kerja</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>akomodasi</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>services for company</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>exhibit a</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
         <is>
           <t>partial_match</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>no_match</t>
         </is>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>no_match</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
         <v>0.143</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>0.333</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>instrument</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>pengadaan</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>saudara</t>
         </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.059</v>
       </c>
       <c r="E5" t="n">
         <v>0.059</v>
@@ -777,186 +767,190 @@
       <c r="F5" t="n">
         <v>0.059</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>deliverables engineering</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>pic</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>pengadaan</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>konstruksi</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>commissioning</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>inspeksi</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
+          <t>no_match</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
           <t>full_match</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>no_match</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
         <v>0.143</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>0.333</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>ijin</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>persetujuan</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>request</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.08400000000000001</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.083</v>
       </c>
       <c r="F6" t="n">
         <v>0.083</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>permohonan ijin</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>persetujuan</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>kunjungan</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>gpf</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>row</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
         <is>
           <t>partial_match</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>full_match</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>no_match</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
         <v>0.286</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>0.667</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>regarding</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>soil</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.132</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.099</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.095</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>ijin</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>penyelidikan tanah</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>pelaksanaan</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>pekerjaan</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
           <t>no_match</t>
@@ -967,74 +961,77 @@
           <t>no_match</t>
         </is>
       </c>
-      <c r="Q7" t="n">
-        <v>0</v>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>no_match</t>
+        </is>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>solution</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>solusi</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>hydrate hydrate solution</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.046</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.03</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.026</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>tanggapan</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>laporan</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>hydrate study</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>sp3mp</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>pencehagahan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>hydrate</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
           <t>no_match</t>
@@ -1045,109 +1042,117 @@
           <t>no_match</t>
         </is>
       </c>
-      <c r="Q8" t="n">
-        <v>0</v>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>no_match</t>
+        </is>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>persetujuan</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>lokasi</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.047</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.046</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.04</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>ijin</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>siml</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>id badge</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>persetujuan</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>masuk</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>lokasi</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
+          <t>no_match</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
           <t>full_match</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>full_match</t>
         </is>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>0.286</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>0.667</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>hidrologi</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>topographical</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>tanah</t>
         </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.032</v>
       </c>
       <c r="E10" t="n">
         <v>0.032</v>
@@ -1155,116 +1160,117 @@
       <c r="F10" t="n">
         <v>0.032</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>study hidrologi</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>persyaratan-persyaratan</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>pemberitahuan</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>penyelidikan tanah</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>memulai pekerjaan</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
         <is>
           <t>partial_match</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
+          <t>no_match</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
           <t>partial_match</t>
         </is>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>0.286</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>0.667</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>required</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>regarding</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>wilayah</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.042</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.04</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.03</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>tindak lanjut</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>bengawan solo</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>persyaratan</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>perizinan</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>relokasi</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>sungai</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
           <t>no_match</t>
@@ -1275,144 +1281,150 @@
           <t>no_match</t>
         </is>
       </c>
-      <c r="Q11" t="n">
-        <v>0</v>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>no_match</t>
+        </is>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>kesiapan</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>meragukan</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>document control</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.036</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.022</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.021</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>troubleshooting</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>kesiapan</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>cacat</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>jaminan</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>kerahasiaan</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>meragukan</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr">
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
         <is>
           <t>full_match</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>full_match</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
-      <c r="Q12" t="n">
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>no_match</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
         <v>0.286</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>0.667</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>november</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>letter</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>konfirmasi</t>
         </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0.095</v>
       </c>
       <c r="E13" t="n">
         <v>0.095</v>
       </c>
       <c r="F13" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.08699999999999999</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>sp3mp</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>perpanjangan</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>tertulis</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>batas akhir</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
           <t>no_match</t>
@@ -1423,171 +1435,182 @@
           <t>no_match</t>
         </is>
       </c>
-      <c r="Q13" t="n">
-        <v>0</v>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>no_match</t>
+        </is>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>kesiapan</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>readiness</t>
         </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0.043</v>
       </c>
       <c r="E14" t="n">
         <v>0.043</v>
       </c>
       <c r="F14" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.04</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>kesiapan</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>troubleshooting</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>review</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>system security</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr">
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
         <is>
           <t>full_match</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>no_match</t>
         </is>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>no_match</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
         <v>0.143</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>0.333</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>ijin</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>application</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>pioneer</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.068</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.057</v>
       </c>
       <c r="F15" t="n">
         <v>0.057</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G15" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>ijin</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>imb</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>permohonan</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>kantor perintis</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr">
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
         <is>
           <t>full_match</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>no_match</t>
         </is>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>no_match</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
         <v>0.143</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>0.333</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>plan</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>land</t>
         </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0.062</v>
       </c>
       <c r="E16" t="n">
         <v>0.062</v>
@@ -1595,38 +1618,36 @@
       <c r="F16" t="n">
         <v>0.062</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G16" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>tahap-1</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>rencana</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>exhibit a</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>draft</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>dokumen serah terima</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
           <t>no_match</t>
@@ -1637,31 +1658,36 @@
           <t>no_match</t>
         </is>
       </c>
-      <c r="Q16" t="n">
-        <v>0</v>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>no_match</t>
+        </is>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>tanah</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>soil</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>perpanjangan</t>
         </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0.091</v>
       </c>
       <c r="E17" t="n">
         <v>0.091</v>
@@ -1669,38 +1695,36 @@
       <c r="F17" t="n">
         <v>0.091</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G17" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>ijin</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>perpanjangan</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>surat rekomendasi</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>melewati</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>batas waktu</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
           <t>no_match</t>
@@ -1708,65 +1732,68 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
+          <t>no_match</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
           <t>full_match</t>
         </is>
       </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>0.143</v>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>0.333</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>facilities</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>temporary</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>permohonan</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>0.044</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.043</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.041</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>pagar perimeter</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>fasilitas sementara</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>permohonan</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
           <t>no_match</t>
@@ -1774,65 +1801,68 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
+          <t>no_match</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
           <t>full_match</t>
         </is>
       </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
         <v>0.143</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>0.333</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>perubahan</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>about</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.061</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.056</v>
       </c>
       <c r="F19" t="n">
         <v>0.056</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G19" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>informasi</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>awal</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>lingkup kerja</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
           <t>no_match</t>
@@ -1843,74 +1873,77 @@
           <t>no_match</t>
         </is>
       </c>
-      <c r="Q19" t="n">
-        <v>0</v>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>no_match</t>
+        </is>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>document</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>document control</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>selesai</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>0.028</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.027</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>0.026</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>aktif</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>kesiapan</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>troubleshooting</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>mengijinkan</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>penambahan</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>fitur</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
           <t>no_match</t>
@@ -1921,175 +1954,186 @@
           <t>no_match</t>
         </is>
       </c>
-      <c r="Q20" t="n">
-        <v>0</v>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>no_match</t>
+        </is>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>ijin</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>persetujuan</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>0.048</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.046</v>
       </c>
       <c r="F21" t="n">
         <v>0.046</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G21" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>ijin</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>persetujuan</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>lanjutan</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>konstruksi awal</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>tindak lanjut</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>serah terima lahan</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
+          <t>no_match</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
           <t>full_match</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>full_match</t>
         </is>
       </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="n">
         <v>0.286</v>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>0.667</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>facilities</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>permohonan</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>request</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>0.073</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.059</v>
       </c>
       <c r="F22" t="n">
         <v>0.059</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G22" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>ijin</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>fasilitas permanen</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>permohonan</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
+          <t>no_match</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
           <t>full_match</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
-      <c r="Q22" t="n">
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>no_match</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
         <v>0.143</v>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>0.333</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>panduan</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>meeting</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>materi</t>
         </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0.065</v>
       </c>
       <c r="E23" t="n">
         <v>0.065</v>
@@ -2097,108 +2141,109 @@
       <c r="F23" t="n">
         <v>0.065</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G23" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>panduan</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>materi konstruksi</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>ekspektasi</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>fungsi konstruksi</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
         <is>
           <t>full_match</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
+          <t>no_match</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
           <t>partial_match</t>
         </is>
       </c>
-      <c r="Q23" t="n">
+      <c r="R23" t="n">
         <v>0.286</v>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>0.667</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>implementation</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>prevention</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>0.074</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>0.073</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>0.07099999999999999</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>biaya</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>submission</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>harga lumpsum</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>epcc cost</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>process design basis</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
           <t>no_match</t>
@@ -2209,136 +2254,142 @@
           <t>no_match</t>
         </is>
       </c>
-      <c r="Q24" t="n">
-        <v>0</v>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>no_match</t>
+        </is>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>komunikasi</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>jalur</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>ditetapkan</t>
         </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0.048</v>
       </c>
       <c r="E25" t="n">
         <v>0.048</v>
       </c>
       <c r="F25" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.028</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>komunikasi</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>jalur</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>informasi</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>keterlambatan</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr">
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
         <is>
           <t>full_match</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>full_match</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
-      <c r="Q25" t="n">
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>no_match</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
         <v>0.286</v>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>0.667</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>monthly</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>rapat</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>meeting</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>0.049</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.045</v>
       </c>
       <c r="F26" t="n">
         <v>0.045</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G26" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>lapangan</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>exhibit c</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>pengganti</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>weekly meeting</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
           <t>no_match</t>
@@ -2346,73 +2397,76 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
+          <t>no_match</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
           <t>partial_match</t>
         </is>
       </c>
-      <c r="Q26" t="n">
+      <c r="R26" t="n">
         <v>0.143</v>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>0.333</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>documents</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>penyiapan</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>0.062</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>0.057</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>0.049</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>exhibit c</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>fase awal</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>dokumen pendukung</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>strategi penyelesaian</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>pekerjaan fisik</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
           <t>no_match</t>
@@ -2423,31 +2477,36 @@
           <t>no_match</t>
         </is>
       </c>
-      <c r="Q27" t="n">
-        <v>0</v>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>no_match</t>
+        </is>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>pioneer</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>permit</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>mendirikan</t>
         </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0.091</v>
       </c>
       <c r="E28" t="n">
         <v>0.091</v>
@@ -2455,61 +2514,64 @@
       <c r="F28" t="n">
         <v>0.091</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G28" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>diterbitkan</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>bangunan pioneer</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr">
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
         <is>
           <t>partial_match</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>no_match</t>
         </is>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>no_match</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
         <v>0.143</v>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>0.333</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>invitation</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>undangan</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>perijinan</t>
         </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0.059</v>
       </c>
       <c r="E29" t="n">
         <v>0.059</v>
@@ -2517,100 +2579,101 @@
       <c r="F29" t="n">
         <v>0.059</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G29" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>perijinan</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>undangan</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>sosialisasi</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>mengidentifikasi</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
+          <t>no_match</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
           <t>full_match</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>full_match</t>
         </is>
       </c>
-      <c r="Q29" t="n">
+      <c r="R29" t="n">
         <v>0.286</v>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>0.667</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>procedure</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>physical</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>0.146</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>0.125</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>0.12</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>penyusunan</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>penomoran peralatan</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>dokumen</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>no_match</t>
-        </is>
-      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
           <t>no_match</t>
@@ -2621,10 +2684,15 @@
           <t>no_match</t>
         </is>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>no_match</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
         <v>0</v>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>0</v>
       </c>
     </row>

--- a/src/adj_textrank/w2v_textrank_ngram_v8.xlsx
+++ b/src/adj_textrank/w2v_textrank_ngram_v8.xlsx
@@ -538,16 +538,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>proposed</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>personnel</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>proposed</t>
-        </is>
-      </c>
       <c r="D2" t="n">
-        <v>0.041</v>
+        <v>0.031</v>
       </c>
       <c r="E2" t="n">
         <v>0.03</v>
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.151</v>
+        <v>0.156</v>
       </c>
       <c r="E3" t="n">
         <v>0.133</v>
       </c>
       <c r="F3" t="n">
-        <v>0.083</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ruang</t>
+          <t>ruangan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ruangan</t>
+          <t>perubahan</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.041</v>
+        <v>0.034</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04</v>
+        <v>0.034</v>
       </c>
       <c r="F4" t="n">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>partial_match</t>
+          <t>no_match</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -746,26 +746,26 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>instrument</t>
+          <t>saudara</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pengadaan</t>
+          <t>rj</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>saudara</t>
+          <t>pj</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -815,7 +815,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>full_match</t>
+          <t>no_match</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -824,10 +824,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="D6" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.08400000000000001</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.083</v>
       </c>
       <c r="F6" t="n">
         <v>0.083</v>
@@ -912,19 +912,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>soil</t>
+          <t>the</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>tanah</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.132</v>
+        <v>0.116</v>
       </c>
       <c r="E7" t="n">
-        <v>0.099</v>
+        <v>0.095</v>
       </c>
       <c r="F7" t="n">
         <v>0.095</v>
@@ -964,14 +964,14 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>no_match</t>
+          <t>partial_match</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="8">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.046</v>
+        <v>0.039</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03</v>
+        <v>0.028</v>
       </c>
       <c r="F8" t="n">
         <v>0.026</v>
@@ -1055,24 +1055,24 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>persetujuan</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>and</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>persetujuan</t>
-        </is>
-      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>lokasi</t>
+          <t>request</t>
         </is>
       </c>
       <c r="D9" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.047</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.046</v>
       </c>
       <c r="F9" t="n">
         <v>0.04</v>
@@ -1110,24 +1110,24 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>no_match</t>
+          <t>full_match</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>full_match</t>
+          <t>no_match</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>full_match</t>
+          <t>no_match</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0.286</v>
+        <v>0.143</v>
       </c>
       <c r="R9" t="n">
-        <v>0.667</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="10">
@@ -1207,27 +1207,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>regarding</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>required</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>regarding</t>
-        </is>
-      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>wilayah</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.042</v>
+        <v>0.038</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04</v>
+        <v>0.033</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03</v>
+        <v>0.026</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>0.036</v>
       </c>
       <c r="E12" t="n">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="F12" t="n">
         <v>0.021</v>
@@ -1383,7 +1383,7 @@
         <v>0.095</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>0.043</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1503,21 +1503,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ijin</t>
+          <t>permohonan</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>pioneer</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>pioneer</t>
+          <t>permit</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.068</v>
+        <v>0.057</v>
       </c>
       <c r="E15" t="n">
         <v>0.057</v>
@@ -1647,17 +1647,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>izin</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>tanah</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>soil</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>perpanjangan</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1708,14 +1708,14 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>full_match</t>
+          <t>no_match</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.061</v>
+        <v>0.062</v>
       </c>
       <c r="E19" t="n">
         <v>0.056</v>
@@ -1858,22 +1858,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>selesai</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>document control</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>selesai</t>
-        </is>
-      </c>
       <c r="D20" t="n">
-        <v>0.028</v>
+        <v>0.03</v>
       </c>
       <c r="E20" t="n">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="F20" t="n">
-        <v>0.026</v>
+        <v>0.024</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.048</v>
+        <v>0.051</v>
       </c>
       <c r="E21" t="n">
         <v>0.046</v>
@@ -2019,11 +2019,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>request</t>
+          <t>fasilitas</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.073</v>
+        <v>0.079</v>
       </c>
       <c r="E22" t="n">
         <v>0.059</v>
@@ -2062,14 +2062,14 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>no_match</t>
+          <t>partial_match</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>0.143</v>
+        <v>0.286</v>
       </c>
       <c r="R22" t="n">
-        <v>0.333</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="23">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>prevention</t>
+          <t>solution</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.074</v>
+        <v>0.081</v>
       </c>
       <c r="E24" t="n">
         <v>0.073</v>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ditetapkan</t>
+          <t>lanjuti</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -2239,7 +2239,7 @@
         <v>0.048</v>
       </c>
       <c r="F25" t="n">
-        <v>0.028</v>
+        <v>0.024</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2364,19 +2364,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>penyiapan</t>
+          <t>pendukung</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>lapangan</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.062</v>
+        <v>0.063</v>
       </c>
       <c r="E27" t="n">
-        <v>0.057</v>
+        <v>0.049</v>
       </c>
       <c r="F27" t="n">
         <v>0.049</v>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>no_match</t>
+          <t>partial_match</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2424,26 +2424,26 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>project</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>pioneer</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>permit</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>mendirikan</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -2472,12 +2472,12 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
+          <t>no_match</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
           <t>partial_match</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>no_match</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2495,7 +2495,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>invitation</t>
+          <t>permission</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2575,17 +2575,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>physical</t>
+          <t>numbering</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.146</v>
+        <v>0.131</v>
       </c>
       <c r="E30" t="n">
         <v>0.125</v>
       </c>
       <c r="F30" t="n">
-        <v>0.12</v>
+        <v>0.111</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
